--- a/data/pca/factorExposure/factorExposure_2012-07-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-16.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01836648430831732</v>
+        <v>-0.02312348299072537</v>
       </c>
       <c r="C2">
-        <v>0.02792815576065179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02447381757583753</v>
+      </c>
+      <c r="D2">
+        <v>-0.005224261981280282</v>
+      </c>
+      <c r="E2">
+        <v>-0.01656629313030725</v>
+      </c>
+      <c r="F2">
+        <v>-0.00553751518819594</v>
+      </c>
+      <c r="G2">
+        <v>-0.01324711826464564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06908371425282873</v>
+        <v>-0.07533883523310632</v>
       </c>
       <c r="C4">
-        <v>0.05828113486865243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03917204303353585</v>
+      </c>
+      <c r="D4">
+        <v>-0.07097944764318072</v>
+      </c>
+      <c r="E4">
+        <v>0.003520054983952849</v>
+      </c>
+      <c r="F4">
+        <v>-0.01796698112393707</v>
+      </c>
+      <c r="G4">
+        <v>0.02708951903031806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09679659944583356</v>
+        <v>-0.112189355777837</v>
       </c>
       <c r="C6">
-        <v>0.06513315772705612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04478153464994061</v>
+      </c>
+      <c r="D6">
+        <v>-0.01494179756481869</v>
+      </c>
+      <c r="E6">
+        <v>0.005780900717735054</v>
+      </c>
+      <c r="F6">
+        <v>-0.04271977695688618</v>
+      </c>
+      <c r="G6">
+        <v>-0.009816401444893612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04516839885838126</v>
+        <v>-0.05386938757052324</v>
       </c>
       <c r="C7">
-        <v>0.03426028840868427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02571234036153625</v>
+      </c>
+      <c r="D7">
+        <v>-0.0340694382010072</v>
+      </c>
+      <c r="E7">
+        <v>-0.02252703049450728</v>
+      </c>
+      <c r="F7">
+        <v>-0.02712468923117843</v>
+      </c>
+      <c r="G7">
+        <v>0.03731972434169193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03268981703070884</v>
+        <v>-0.03344564289072589</v>
       </c>
       <c r="C8">
-        <v>0.0266175123498797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01712097196284855</v>
+      </c>
+      <c r="D8">
+        <v>-0.03937222028960585</v>
+      </c>
+      <c r="E8">
+        <v>-0.009839037884343831</v>
+      </c>
+      <c r="F8">
+        <v>-0.0483061743640926</v>
+      </c>
+      <c r="G8">
+        <v>-0.02269443286926631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06166970183035128</v>
+        <v>-0.06926675921448729</v>
       </c>
       <c r="C9">
-        <v>0.04510867738968195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02865399527018377</v>
+      </c>
+      <c r="D9">
+        <v>-0.07191785803554816</v>
+      </c>
+      <c r="E9">
+        <v>-0.01660976500049188</v>
+      </c>
+      <c r="F9">
+        <v>-0.03249956453506586</v>
+      </c>
+      <c r="G9">
+        <v>0.01016229034646434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.03036100844532497</v>
+        <v>-0.0406722787131731</v>
       </c>
       <c r="C10">
-        <v>0.03710818858880675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03827075753801211</v>
+      </c>
+      <c r="D10">
+        <v>0.1841570933712973</v>
+      </c>
+      <c r="E10">
+        <v>-0.04713982721839228</v>
+      </c>
+      <c r="F10">
+        <v>-0.03040819188570338</v>
+      </c>
+      <c r="G10">
+        <v>0.02121864234077654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06992895929761754</v>
+        <v>-0.07587631672705444</v>
       </c>
       <c r="C11">
-        <v>0.05254807784776924</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03124847340075187</v>
+      </c>
+      <c r="D11">
+        <v>-0.06754243520199452</v>
+      </c>
+      <c r="E11">
+        <v>0.006751403810935083</v>
+      </c>
+      <c r="F11">
+        <v>-0.0361300365829269</v>
+      </c>
+      <c r="G11">
+        <v>0.03895749093634214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.05282479048237366</v>
+        <v>-0.06045315476262927</v>
       </c>
       <c r="C12">
-        <v>0.05108971145136392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03526611817359708</v>
+      </c>
+      <c r="D12">
+        <v>-0.05017207236997762</v>
+      </c>
+      <c r="E12">
+        <v>-0.01000808027007585</v>
+      </c>
+      <c r="F12">
+        <v>-0.02655781803367129</v>
+      </c>
+      <c r="G12">
+        <v>0.0332145676286363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0599460884233949</v>
+        <v>-0.06441477142938058</v>
       </c>
       <c r="C13">
-        <v>0.05127527807258613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03049237276279484</v>
+      </c>
+      <c r="D13">
+        <v>-0.05616081161730316</v>
+      </c>
+      <c r="E13">
+        <v>-0.003831152823933801</v>
+      </c>
+      <c r="F13">
+        <v>-0.01394200215282701</v>
+      </c>
+      <c r="G13">
+        <v>0.01701733391508545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.03396241157813871</v>
+        <v>-0.03877551143641339</v>
       </c>
       <c r="C14">
-        <v>0.02923268218386065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02254088139416462</v>
+      </c>
+      <c r="D14">
+        <v>-0.01152131491746828</v>
+      </c>
+      <c r="E14">
+        <v>-0.01879486106375523</v>
+      </c>
+      <c r="F14">
+        <v>-0.0177544436885568</v>
+      </c>
+      <c r="G14">
+        <v>-0.007266378428295493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.04022838225402981</v>
+        <v>-0.04037973402452642</v>
       </c>
       <c r="C15">
-        <v>0.01397834432162466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.004928203150390711</v>
+      </c>
+      <c r="D15">
+        <v>-0.01944039023275796</v>
+      </c>
+      <c r="E15">
+        <v>-0.04270029484184507</v>
+      </c>
+      <c r="F15">
+        <v>0.003785420318008648</v>
+      </c>
+      <c r="G15">
+        <v>-0.021177376613873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05790765876642523</v>
+        <v>-0.0614630399429356</v>
       </c>
       <c r="C16">
-        <v>0.04346669836535124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02707302317216269</v>
+      </c>
+      <c r="D16">
+        <v>-0.05890314676639395</v>
+      </c>
+      <c r="E16">
+        <v>-0.001206743749994313</v>
+      </c>
+      <c r="F16">
+        <v>-0.02924550507254038</v>
+      </c>
+      <c r="G16">
+        <v>0.02203605731419497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.06246186976616958</v>
+        <v>-0.0615867244002621</v>
       </c>
       <c r="C20">
-        <v>0.03665067882419243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01814839037905758</v>
+      </c>
+      <c r="D20">
+        <v>-0.04918646105747271</v>
+      </c>
+      <c r="E20">
+        <v>-0.01874147663040967</v>
+      </c>
+      <c r="F20">
+        <v>-0.02456720118401847</v>
+      </c>
+      <c r="G20">
+        <v>0.02602769389898044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02709134458910297</v>
+        <v>-0.02314293606234982</v>
       </c>
       <c r="C21">
-        <v>-8.168784584905333e-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01077921093822292</v>
+      </c>
+      <c r="D21">
+        <v>-0.03761166397305767</v>
+      </c>
+      <c r="E21">
+        <v>-0.09120918704871572</v>
+      </c>
+      <c r="F21">
+        <v>0.009717397094345258</v>
+      </c>
+      <c r="G21">
+        <v>-0.01681964200633754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.06990154303570344</v>
+        <v>-0.07018295344925565</v>
       </c>
       <c r="C22">
-        <v>0.07778791657720915</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04880083900951909</v>
+      </c>
+      <c r="D22">
+        <v>-0.1092539578464589</v>
+      </c>
+      <c r="E22">
+        <v>-0.60327065993336</v>
+      </c>
+      <c r="F22">
+        <v>0.1615725892422252</v>
+      </c>
+      <c r="G22">
+        <v>-0.04530236423855545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.07064647348377491</v>
+        <v>-0.07088901343818876</v>
       </c>
       <c r="C23">
-        <v>0.0773048334203405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04823839567507641</v>
+      </c>
+      <c r="D23">
+        <v>-0.1103909098876285</v>
+      </c>
+      <c r="E23">
+        <v>-0.6024510912749386</v>
+      </c>
+      <c r="F23">
+        <v>0.1612751994031641</v>
+      </c>
+      <c r="G23">
+        <v>-0.04684197661437372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06439643935988246</v>
+        <v>-0.07240824920265161</v>
       </c>
       <c r="C24">
-        <v>0.05094389104152506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03235224469695386</v>
+      </c>
+      <c r="D24">
+        <v>-0.06627943508899768</v>
+      </c>
+      <c r="E24">
+        <v>-0.007442550362106329</v>
+      </c>
+      <c r="F24">
+        <v>-0.04318503044658206</v>
+      </c>
+      <c r="G24">
+        <v>0.01770355173000455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.06544144954016437</v>
+        <v>-0.07111014271651514</v>
       </c>
       <c r="C25">
-        <v>0.05723964919524076</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03813184563506865</v>
+      </c>
+      <c r="D25">
+        <v>-0.06406571669374109</v>
+      </c>
+      <c r="E25">
+        <v>-0.00857366674205127</v>
+      </c>
+      <c r="F25">
+        <v>-0.03956134754243931</v>
+      </c>
+      <c r="G25">
+        <v>0.0150767153941761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.03913564424984999</v>
+        <v>-0.04000126242103</v>
       </c>
       <c r="C26">
-        <v>0.01327733711469868</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005060167984486304</v>
+      </c>
+      <c r="D26">
+        <v>-0.01971646322727139</v>
+      </c>
+      <c r="E26">
+        <v>-0.03745015205716197</v>
+      </c>
+      <c r="F26">
+        <v>-0.01547181775028347</v>
+      </c>
+      <c r="G26">
+        <v>0.01749496288080636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05759497883645363</v>
+        <v>-0.07656336887015909</v>
       </c>
       <c r="C28">
-        <v>0.07627182359418176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07656752815115167</v>
+      </c>
+      <c r="D28">
+        <v>0.3236763594362251</v>
+      </c>
+      <c r="E28">
+        <v>-0.04953862969494797</v>
+      </c>
+      <c r="F28">
+        <v>-0.05306223263619379</v>
+      </c>
+      <c r="G28">
+        <v>-0.02801039206528836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.03680870595373209</v>
+        <v>-0.04222764978169662</v>
       </c>
       <c r="C29">
-        <v>0.03252813404178805</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02547298957935948</v>
+      </c>
+      <c r="D29">
+        <v>-0.009672007752760456</v>
+      </c>
+      <c r="E29">
+        <v>-0.04389578170931996</v>
+      </c>
+      <c r="F29">
+        <v>-0.009790453056232641</v>
+      </c>
+      <c r="G29">
+        <v>0.005513455270214532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.1152617609312076</v>
+        <v>-0.1277438146565522</v>
       </c>
       <c r="C30">
-        <v>0.09783614428656257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06633289317819657</v>
+      </c>
+      <c r="D30">
+        <v>-0.1057508655672261</v>
+      </c>
+      <c r="E30">
+        <v>-0.03842426561963073</v>
+      </c>
+      <c r="F30">
+        <v>-0.00514886070788847</v>
+      </c>
+      <c r="G30">
+        <v>0.003687726437812853</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03770758043901205</v>
+        <v>-0.04265306045797448</v>
       </c>
       <c r="C31">
-        <v>0.02431057349971002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01542576460287762</v>
+      </c>
+      <c r="D31">
+        <v>-0.0296099691579819</v>
+      </c>
+      <c r="E31">
+        <v>-0.02038787598669503</v>
+      </c>
+      <c r="F31">
+        <v>-0.0153054516683934</v>
+      </c>
+      <c r="G31">
+        <v>0.01927150366127678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.03214933903289271</v>
+        <v>-0.03331408808495458</v>
       </c>
       <c r="C32">
-        <v>0.02861136203180391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01809408279608797</v>
+      </c>
+      <c r="D32">
+        <v>-0.01462810163816262</v>
+      </c>
+      <c r="E32">
+        <v>-0.06084266399213655</v>
+      </c>
+      <c r="F32">
+        <v>0.01372398416627643</v>
+      </c>
+      <c r="G32">
+        <v>-0.00834023511080793</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07609925824529983</v>
+        <v>-0.08722755818273567</v>
       </c>
       <c r="C33">
-        <v>0.05020138065721629</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03254457686759434</v>
+      </c>
+      <c r="D33">
+        <v>-0.06301246375578919</v>
+      </c>
+      <c r="E33">
+        <v>-0.01349771924813969</v>
+      </c>
+      <c r="F33">
+        <v>-0.002217149346857336</v>
+      </c>
+      <c r="G33">
+        <v>0.02947799454417551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05147777507795957</v>
+        <v>-0.05655604215853453</v>
       </c>
       <c r="C34">
-        <v>0.03251563398631942</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01859819604062006</v>
+      </c>
+      <c r="D34">
+        <v>-0.05732528545132777</v>
+      </c>
+      <c r="E34">
+        <v>-0.004459059721942272</v>
+      </c>
+      <c r="F34">
+        <v>-0.02833552868222159</v>
+      </c>
+      <c r="G34">
+        <v>0.01587182860894769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.03809092173075917</v>
+        <v>-0.03978810489378181</v>
       </c>
       <c r="C35">
-        <v>0.01328779168137971</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.005988672367066923</v>
+      </c>
+      <c r="D35">
+        <v>-0.01058217553895123</v>
+      </c>
+      <c r="E35">
+        <v>-0.03182088236283914</v>
+      </c>
+      <c r="F35">
+        <v>0.006946960454821242</v>
+      </c>
+      <c r="G35">
+        <v>0.01086703189263648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01905595930498958</v>
+        <v>-0.02247409542434172</v>
       </c>
       <c r="C36">
-        <v>0.01522968932565377</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01003654134381518</v>
+      </c>
+      <c r="D36">
+        <v>-0.01853052789443787</v>
+      </c>
+      <c r="E36">
+        <v>-0.03402135963083285</v>
+      </c>
+      <c r="F36">
+        <v>-0.01436685927335166</v>
+      </c>
+      <c r="G36">
+        <v>0.01781553918230347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03781458795517249</v>
+        <v>-0.04005517665000588</v>
       </c>
       <c r="C38">
-        <v>0.01290297326337131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.003804841618948769</v>
+      </c>
+      <c r="D38">
+        <v>-0.01177707672348938</v>
+      </c>
+      <c r="E38">
+        <v>-0.05934045936812308</v>
+      </c>
+      <c r="F38">
+        <v>0.02534476620217845</v>
+      </c>
+      <c r="G38">
+        <v>-0.02590897015876834</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.08807527287619735</v>
+        <v>-0.09910731610157388</v>
       </c>
       <c r="C39">
-        <v>0.07939974752061853</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05361113914485424</v>
+      </c>
+      <c r="D39">
+        <v>-0.0855740323418427</v>
+      </c>
+      <c r="E39">
+        <v>0.01589283317605728</v>
+      </c>
+      <c r="F39">
+        <v>-0.02324758119233238</v>
+      </c>
+      <c r="G39">
+        <v>-0.006167263174616558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.06838535948453632</v>
+        <v>-0.07488578220056423</v>
       </c>
       <c r="C40">
-        <v>0.05704519920237663</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03993668631712406</v>
+      </c>
+      <c r="D40">
+        <v>-0.007230088868201777</v>
+      </c>
+      <c r="E40">
+        <v>-0.03024889072801925</v>
+      </c>
+      <c r="F40">
+        <v>0.03834360176966368</v>
+      </c>
+      <c r="G40">
+        <v>-0.04375021023283662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.03878104457537475</v>
+        <v>-0.04206006717662069</v>
       </c>
       <c r="C41">
-        <v>0.01578745634629559</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.007842219228852405</v>
+      </c>
+      <c r="D41">
+        <v>-0.04187117218163962</v>
+      </c>
+      <c r="E41">
+        <v>-0.008194989576470664</v>
+      </c>
+      <c r="F41">
+        <v>0.01201463110410096</v>
+      </c>
+      <c r="G41">
+        <v>-0.003805907507644092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04084597963651736</v>
+        <v>-0.04888828022214518</v>
       </c>
       <c r="C43">
-        <v>0.03643356176791315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02339082915170511</v>
+      </c>
+      <c r="D43">
+        <v>-0.02847909725394646</v>
+      </c>
+      <c r="E43">
+        <v>-0.01854729956226457</v>
+      </c>
+      <c r="F43">
+        <v>-0.008896671295588739</v>
+      </c>
+      <c r="G43">
+        <v>0.01565377528505493</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.08856350034011158</v>
+        <v>-0.08955630072952495</v>
       </c>
       <c r="C44">
-        <v>0.09107577178043531</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06073602364377979</v>
+      </c>
+      <c r="D44">
+        <v>-0.06568246327823789</v>
+      </c>
+      <c r="E44">
+        <v>-0.0946920710294796</v>
+      </c>
+      <c r="F44">
+        <v>-0.05239042333485176</v>
+      </c>
+      <c r="G44">
+        <v>-0.0019502243403212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02836230627058329</v>
+        <v>-0.02876213219025884</v>
       </c>
       <c r="C46">
-        <v>0.01963850471201984</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01248878557525058</v>
+      </c>
+      <c r="D46">
+        <v>-0.03322148446180541</v>
+      </c>
+      <c r="E46">
+        <v>-0.02138340922350284</v>
+      </c>
+      <c r="F46">
+        <v>-0.01999309568837582</v>
+      </c>
+      <c r="G46">
+        <v>-0.005972759250646179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.03033777101127945</v>
+        <v>-0.03256268008909441</v>
       </c>
       <c r="C47">
-        <v>0.02082463869448065</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01322926944166589</v>
+      </c>
+      <c r="D47">
+        <v>-0.01780512257466922</v>
+      </c>
+      <c r="E47">
+        <v>-0.0493337456252026</v>
+      </c>
+      <c r="F47">
+        <v>-0.01271790699383937</v>
+      </c>
+      <c r="G47">
+        <v>0.02799592225819805</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02783659405008016</v>
+        <v>-0.03164161687440351</v>
       </c>
       <c r="C48">
-        <v>0.01826801123334154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01155530747563281</v>
+      </c>
+      <c r="D48">
+        <v>-0.02793657611438301</v>
+      </c>
+      <c r="E48">
+        <v>-0.04054992008674196</v>
+      </c>
+      <c r="F48">
+        <v>-0.01365145874628612</v>
+      </c>
+      <c r="G48">
+        <v>0.009741043116804984</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.156986251259744</v>
+        <v>-0.176994865897738</v>
       </c>
       <c r="C49">
-        <v>0.09352743726437963</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05870691860605303</v>
+      </c>
+      <c r="D49">
+        <v>-0.009314618306145654</v>
+      </c>
+      <c r="E49">
+        <v>0.1147243677166215</v>
+      </c>
+      <c r="F49">
+        <v>-0.01264500579485198</v>
+      </c>
+      <c r="G49">
+        <v>0.07342353483249391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03229682910181231</v>
+        <v>-0.03963714698860177</v>
       </c>
       <c r="C50">
-        <v>0.02599743109887509</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02133884970404975</v>
+      </c>
+      <c r="D50">
+        <v>-0.04002233712520366</v>
+      </c>
+      <c r="E50">
+        <v>-0.04490641299354901</v>
+      </c>
+      <c r="F50">
+        <v>-0.02762124128850937</v>
+      </c>
+      <c r="G50">
+        <v>0.01820090089508531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.02525970598012374</v>
+        <v>-0.02620640654746722</v>
       </c>
       <c r="C51">
-        <v>0.01870717103469879</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.01145878169618016</v>
+      </c>
+      <c r="D51">
+        <v>-0.02519416301685789</v>
+      </c>
+      <c r="E51">
+        <v>-0.01444534365973067</v>
+      </c>
+      <c r="F51">
+        <v>-0.007700184567165261</v>
+      </c>
+      <c r="G51">
+        <v>-0.008367762500208042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1424686213957506</v>
+        <v>-0.1600420487694773</v>
       </c>
       <c r="C53">
-        <v>0.1014622252075047</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06943998958888799</v>
+      </c>
+      <c r="D53">
+        <v>-0.02391660900182095</v>
+      </c>
+      <c r="E53">
+        <v>0.03386793753497545</v>
+      </c>
+      <c r="F53">
+        <v>-0.02900556398773464</v>
+      </c>
+      <c r="G53">
+        <v>0.02654292015866744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0521755057740023</v>
+        <v>-0.05595011021536572</v>
       </c>
       <c r="C54">
-        <v>0.02530760094004249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01238535362122527</v>
+      </c>
+      <c r="D54">
+        <v>-0.03678097708951625</v>
+      </c>
+      <c r="E54">
+        <v>-0.03955892652132564</v>
+      </c>
+      <c r="F54">
+        <v>-0.01169616881046619</v>
+      </c>
+      <c r="G54">
+        <v>0.009839938918939556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.09400369599328098</v>
+        <v>-0.1004199181984104</v>
       </c>
       <c r="C55">
-        <v>0.06283112322151981</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04260324226611534</v>
+      </c>
+      <c r="D55">
+        <v>-0.03287647781516861</v>
+      </c>
+      <c r="E55">
+        <v>-0.007804852825633801</v>
+      </c>
+      <c r="F55">
+        <v>-0.02973615587924392</v>
+      </c>
+      <c r="G55">
+        <v>0.008417777720282623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1377431020395201</v>
+        <v>-0.1586829813401305</v>
       </c>
       <c r="C56">
-        <v>0.1092895346060746</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.0767706493671297</v>
+      </c>
+      <c r="D56">
+        <v>-0.01715676176396861</v>
+      </c>
+      <c r="E56">
+        <v>0.03633629870744567</v>
+      </c>
+      <c r="F56">
+        <v>-0.06754107765397252</v>
+      </c>
+      <c r="G56">
+        <v>0.03856234869900555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1162123723354491</v>
+        <v>-0.1081986524234356</v>
       </c>
       <c r="C58">
-        <v>0.03222929112023627</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.0005448691089937974</v>
+      </c>
+      <c r="D58">
+        <v>-0.05109457262654275</v>
+      </c>
+      <c r="E58">
+        <v>-0.1777253951137421</v>
+      </c>
+      <c r="F58">
+        <v>-0.04887720803877901</v>
+      </c>
+      <c r="G58">
+        <v>0.04185485057986948</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1101138738142268</v>
+        <v>-0.1474077907869989</v>
       </c>
       <c r="C59">
-        <v>0.08632637044977733</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08455332112797317</v>
+      </c>
+      <c r="D59">
+        <v>0.3490164658006573</v>
+      </c>
+      <c r="E59">
+        <v>-0.04602788301346179</v>
+      </c>
+      <c r="F59">
+        <v>0.0223574478887173</v>
+      </c>
+      <c r="G59">
+        <v>0.005824414960485658</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.183277948323281</v>
+        <v>-0.2123624720970488</v>
       </c>
       <c r="C60">
-        <v>0.115230167866596</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07870944210400682</v>
+      </c>
+      <c r="D60">
+        <v>-0.0173257599795328</v>
+      </c>
+      <c r="E60">
+        <v>0.07698514876047693</v>
+      </c>
+      <c r="F60">
+        <v>-0.03676855202198644</v>
+      </c>
+      <c r="G60">
+        <v>-0.03083583860965918</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.07687286822975309</v>
+        <v>-0.08383993523958715</v>
       </c>
       <c r="C61">
-        <v>0.05800616411616191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03803823012248631</v>
+      </c>
+      <c r="D61">
+        <v>-0.06165806369600331</v>
+      </c>
+      <c r="E61">
+        <v>0.01322647999734208</v>
+      </c>
+      <c r="F61">
+        <v>-0.00728643639303383</v>
+      </c>
+      <c r="G61">
+        <v>0.03439359609751055</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1184555055775389</v>
+        <v>-0.1385813951851353</v>
       </c>
       <c r="C62">
-        <v>0.08323206193970938</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05945596094970339</v>
+      </c>
+      <c r="D62">
+        <v>-0.02849255672706423</v>
+      </c>
+      <c r="E62">
+        <v>0.05242618425796795</v>
+      </c>
+      <c r="F62">
+        <v>-0.03111762187958301</v>
+      </c>
+      <c r="G62">
+        <v>-0.009705987462147566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.04825415253701998</v>
+        <v>-0.0512731714064996</v>
       </c>
       <c r="C63">
-        <v>0.02870648570522459</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01739140411481235</v>
+      </c>
+      <c r="D63">
+        <v>-0.03136004302036891</v>
+      </c>
+      <c r="E63">
+        <v>-0.04568104914207808</v>
+      </c>
+      <c r="F63">
+        <v>-0.01507050491536953</v>
+      </c>
+      <c r="G63">
+        <v>-0.02180595671265093</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1058405362102026</v>
+        <v>-0.1101351189117995</v>
       </c>
       <c r="C64">
-        <v>0.04601438176524509</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.0238843564348688</v>
+      </c>
+      <c r="D64">
+        <v>-0.04830494865225201</v>
+      </c>
+      <c r="E64">
+        <v>-0.0306804511971266</v>
+      </c>
+      <c r="F64">
+        <v>-0.04917888739354895</v>
+      </c>
+      <c r="G64">
+        <v>-0.0119804561348574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.107852737620357</v>
+        <v>-0.1209523695640301</v>
       </c>
       <c r="C65">
-        <v>0.06455930716229247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04380795717186987</v>
+      </c>
+      <c r="D65">
+        <v>-0.01683212516473276</v>
+      </c>
+      <c r="E65">
+        <v>0.006267603417683896</v>
+      </c>
+      <c r="F65">
+        <v>-0.06242308316719289</v>
+      </c>
+      <c r="G65">
+        <v>-0.03436248811342276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.1355599219652625</v>
+        <v>-0.1514712714520201</v>
       </c>
       <c r="C66">
-        <v>0.08954749423758461</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05646697031945381</v>
+      </c>
+      <c r="D66">
+        <v>-0.1199829711771942</v>
+      </c>
+      <c r="E66">
+        <v>0.05004255046521471</v>
+      </c>
+      <c r="F66">
+        <v>-0.04573496197075109</v>
+      </c>
+      <c r="G66">
+        <v>0.01735619706975729</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06944203619843674</v>
+        <v>-0.07356470958738406</v>
       </c>
       <c r="C67">
-        <v>0.02472435799123003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.00865450422748976</v>
+      </c>
+      <c r="D67">
+        <v>-0.02504219863685898</v>
+      </c>
+      <c r="E67">
+        <v>-0.02781800842079904</v>
+      </c>
+      <c r="F67">
+        <v>0.01013391501950544</v>
+      </c>
+      <c r="G67">
+        <v>-0.001178443441542923</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05592817645452689</v>
+        <v>-0.07024816720812825</v>
       </c>
       <c r="C68">
-        <v>0.04874358949753445</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04833734866189821</v>
+      </c>
+      <c r="D68">
+        <v>0.2639250392349409</v>
+      </c>
+      <c r="E68">
+        <v>-0.04814035291468162</v>
+      </c>
+      <c r="F68">
+        <v>-0.01161071411610835</v>
+      </c>
+      <c r="G68">
+        <v>0.0007972786422691826</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04769231934176695</v>
+        <v>-0.05081635922708293</v>
       </c>
       <c r="C69">
-        <v>0.02711388485753155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01270082673705553</v>
+      </c>
+      <c r="D69">
+        <v>-0.03565380494469918</v>
+      </c>
+      <c r="E69">
+        <v>-0.01688491937122146</v>
+      </c>
+      <c r="F69">
+        <v>-0.004595989424541536</v>
+      </c>
+      <c r="G69">
+        <v>0.009811113181922668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.003595159425423514</v>
+        <v>-0.01059660807887023</v>
       </c>
       <c r="C70">
-        <v>-0.001889479116584798</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.001070759651577422</v>
+      </c>
+      <c r="D70">
+        <v>0.001452273463200115</v>
+      </c>
+      <c r="E70">
+        <v>0.006785189326052698</v>
+      </c>
+      <c r="F70">
+        <v>0.008196549387773056</v>
+      </c>
+      <c r="G70">
+        <v>-0.0001866687953602866</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05925208628467616</v>
+        <v>-0.07369112090947104</v>
       </c>
       <c r="C71">
-        <v>0.04903273493264693</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04845499933272367</v>
+      </c>
+      <c r="D71">
+        <v>0.302742249292232</v>
+      </c>
+      <c r="E71">
+        <v>-0.04818694599265737</v>
+      </c>
+      <c r="F71">
+        <v>-0.02468924593902077</v>
+      </c>
+      <c r="G71">
+        <v>0.005264333595899187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1292762869928158</v>
+        <v>-0.1499157492172339</v>
       </c>
       <c r="C72">
-        <v>0.07625727845075136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.05128578753750115</v>
+      </c>
+      <c r="D72">
+        <v>-0.01036384509296036</v>
+      </c>
+      <c r="E72">
+        <v>0.1049794190038601</v>
+      </c>
+      <c r="F72">
+        <v>0.1389204568045699</v>
+      </c>
+      <c r="G72">
+        <v>-0.1245132275530492</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2434190200525446</v>
+        <v>-0.2685923316835069</v>
       </c>
       <c r="C73">
-        <v>0.1384068067901525</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.08711566591966853</v>
+      </c>
+      <c r="D73">
+        <v>-0.06300741902308313</v>
+      </c>
+      <c r="E73">
+        <v>0.1871297653117966</v>
+      </c>
+      <c r="F73">
+        <v>-0.07527611712232615</v>
+      </c>
+      <c r="G73">
+        <v>0.1605703283224496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.07687177011509758</v>
+        <v>-0.08851078387627827</v>
       </c>
       <c r="C74">
-        <v>0.08059138742170892</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06187714539454894</v>
+      </c>
+      <c r="D74">
+        <v>-0.03556204770331626</v>
+      </c>
+      <c r="E74">
+        <v>0.004859121458731692</v>
+      </c>
+      <c r="F74">
+        <v>0.00208966527286977</v>
+      </c>
+      <c r="G74">
+        <v>0.03266592296547503</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.09741343815887876</v>
+        <v>-0.1086419237213136</v>
       </c>
       <c r="C75">
-        <v>0.07310500086285128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.04489396677623931</v>
+      </c>
+      <c r="D75">
+        <v>-0.02483949065371615</v>
+      </c>
+      <c r="E75">
+        <v>-0.01069722797221004</v>
+      </c>
+      <c r="F75">
+        <v>-0.07667937984456977</v>
+      </c>
+      <c r="G75">
+        <v>0.01529960421506938</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.119280200377855</v>
+        <v>-0.133595403824473</v>
       </c>
       <c r="C76">
-        <v>0.09905871408977832</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06887995690223724</v>
+      </c>
+      <c r="D76">
+        <v>-0.05780798544858556</v>
+      </c>
+      <c r="E76">
+        <v>-0.007562270371824568</v>
+      </c>
+      <c r="F76">
+        <v>-0.07551007746249377</v>
+      </c>
+      <c r="G76">
+        <v>0.01921359545437696</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.09284530084855966</v>
+        <v>-0.1002752975240401</v>
       </c>
       <c r="C77">
-        <v>0.06576600266012676</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.03329749581777995</v>
+      </c>
+      <c r="D77">
+        <v>-0.04711505697504888</v>
+      </c>
+      <c r="E77">
+        <v>0.06425753538349072</v>
+      </c>
+      <c r="F77">
+        <v>-0.3076184529400223</v>
+      </c>
+      <c r="G77">
+        <v>-0.8810526612877648</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08391965764359977</v>
+        <v>-0.09953344949335129</v>
       </c>
       <c r="C78">
-        <v>0.04672436439894476</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03113933864750688</v>
+      </c>
+      <c r="D78">
+        <v>-0.07294390605969878</v>
+      </c>
+      <c r="E78">
+        <v>-0.05191135779266595</v>
+      </c>
+      <c r="F78">
+        <v>0.01231038954117342</v>
+      </c>
+      <c r="G78">
+        <v>-0.02855078788656796</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1350853484235668</v>
+        <v>-0.1510136130715878</v>
       </c>
       <c r="C79">
-        <v>0.1008849071052387</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.0649817639967247</v>
+      </c>
+      <c r="D79">
+        <v>-0.02852093622622504</v>
+      </c>
+      <c r="E79">
+        <v>0.01890390647338511</v>
+      </c>
+      <c r="F79">
+        <v>-0.04271832731779315</v>
+      </c>
+      <c r="G79">
+        <v>0.02145536945381236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04491907172839401</v>
+        <v>-0.03993350431228838</v>
       </c>
       <c r="C80">
-        <v>0.01814721927244728</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005814888018569631</v>
+      </c>
+      <c r="D80">
+        <v>-0.02472187218654672</v>
+      </c>
+      <c r="E80">
+        <v>-0.01189272974114483</v>
+      </c>
+      <c r="F80">
+        <v>0.03120904493945674</v>
+      </c>
+      <c r="G80">
+        <v>0.04210280487671109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1089139474002669</v>
+        <v>-0.1205449713495694</v>
       </c>
       <c r="C81">
-        <v>0.07958980622327534</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.0516027676563779</v>
+      </c>
+      <c r="D81">
+        <v>-0.03926249487387446</v>
+      </c>
+      <c r="E81">
+        <v>0.00650511892627406</v>
+      </c>
+      <c r="F81">
+        <v>-0.04381279709393866</v>
+      </c>
+      <c r="G81">
+        <v>0.05614638879917617</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1138986120729642</v>
+        <v>-0.1260388013071708</v>
       </c>
       <c r="C82">
-        <v>0.09333135468091962</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.06061045596502389</v>
+      </c>
+      <c r="D82">
+        <v>-0.03946401742911546</v>
+      </c>
+      <c r="E82">
+        <v>0.02574328433005312</v>
+      </c>
+      <c r="F82">
+        <v>-0.06088789966861195</v>
+      </c>
+      <c r="G82">
+        <v>0.06183630987840991</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.07211411191046604</v>
+        <v>-0.07028647876358196</v>
       </c>
       <c r="C83">
-        <v>0.01544275727878929</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.005100512006716438</v>
+      </c>
+      <c r="D83">
+        <v>-0.04188676507069876</v>
+      </c>
+      <c r="E83">
+        <v>-0.01115474638826099</v>
+      </c>
+      <c r="F83">
+        <v>0.003865702871186733</v>
+      </c>
+      <c r="G83">
+        <v>0.05895434747084977</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.02454422200365168</v>
+        <v>-0.03288817301507434</v>
       </c>
       <c r="C84">
-        <v>0.01897490902606829</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01868057536015739</v>
+      </c>
+      <c r="D84">
+        <v>-0.01312704585713183</v>
+      </c>
+      <c r="E84">
+        <v>-0.007775840693847362</v>
+      </c>
+      <c r="F84">
+        <v>0.03574842178157782</v>
+      </c>
+      <c r="G84">
+        <v>0.03508128790495085</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1174669014845883</v>
+        <v>-0.1183415580404369</v>
       </c>
       <c r="C85">
-        <v>0.07928758925434867</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04518716821079837</v>
+      </c>
+      <c r="D85">
+        <v>-0.03700108360925516</v>
+      </c>
+      <c r="E85">
+        <v>-0.01193092251586263</v>
+      </c>
+      <c r="F85">
+        <v>-0.08754346700115447</v>
+      </c>
+      <c r="G85">
+        <v>0.005739592761643606</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0436275616256829</v>
+        <v>-0.04582523013216564</v>
       </c>
       <c r="C86">
-        <v>0.02389454340896074</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01095272292078433</v>
+      </c>
+      <c r="D86">
+        <v>-0.0153376276945545</v>
+      </c>
+      <c r="E86">
+        <v>-0.04255781532739411</v>
+      </c>
+      <c r="F86">
+        <v>-0.01175912046696783</v>
+      </c>
+      <c r="G86">
+        <v>-0.004791179117811258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.1129579025595897</v>
+        <v>-0.1185630941279067</v>
       </c>
       <c r="C87">
-        <v>0.07894375784523346</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04681728102461043</v>
+      </c>
+      <c r="D87">
+        <v>-0.07608176019874818</v>
+      </c>
+      <c r="E87">
+        <v>-0.01162951937739534</v>
+      </c>
+      <c r="F87">
+        <v>-0.02987666368532483</v>
+      </c>
+      <c r="G87">
+        <v>-0.09902739222377352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05311123102050227</v>
+        <v>-0.05706881735055491</v>
       </c>
       <c r="C88">
-        <v>0.04190372752632294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02596977659880996</v>
+      </c>
+      <c r="D88">
+        <v>-0.0263407284892242</v>
+      </c>
+      <c r="E88">
+        <v>-0.02148524189663331</v>
+      </c>
+      <c r="F88">
+        <v>-0.007539830350580401</v>
+      </c>
+      <c r="G88">
+        <v>-0.00664188682790057</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07820874270550054</v>
+        <v>-0.1065917909390312</v>
       </c>
       <c r="C89">
-        <v>0.08163569696446406</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07925790599417304</v>
+      </c>
+      <c r="D89">
+        <v>0.3231300249965402</v>
+      </c>
+      <c r="E89">
+        <v>-0.09315205626913912</v>
+      </c>
+      <c r="F89">
+        <v>-0.05320739182180168</v>
+      </c>
+      <c r="G89">
+        <v>0.01185946744340503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07403082404758074</v>
+        <v>-0.09267203646357598</v>
       </c>
       <c r="C90">
-        <v>0.07391258164849647</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06960891007661556</v>
+      </c>
+      <c r="D90">
+        <v>0.3116611553561259</v>
+      </c>
+      <c r="E90">
+        <v>-0.07917174130739356</v>
+      </c>
+      <c r="F90">
+        <v>0.01794213087703793</v>
+      </c>
+      <c r="G90">
+        <v>0.01850922408079443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.0810849562497503</v>
+        <v>-0.09022660157972484</v>
       </c>
       <c r="C91">
-        <v>0.06499979851809164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.0430849282727145</v>
+      </c>
+      <c r="D91">
+        <v>-0.02944412904391444</v>
+      </c>
+      <c r="E91">
+        <v>-0.005602360562581112</v>
+      </c>
+      <c r="F91">
+        <v>-0.01667051385333056</v>
+      </c>
+      <c r="G91">
+        <v>0.03608895381635593</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.08698278604140208</v>
+        <v>-0.1058359262978207</v>
       </c>
       <c r="C92">
-        <v>0.06559009904987317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06266699377076659</v>
+      </c>
+      <c r="D92">
+        <v>0.3284738768377731</v>
+      </c>
+      <c r="E92">
+        <v>-0.03190109478305938</v>
+      </c>
+      <c r="F92">
+        <v>-0.03129185227066845</v>
+      </c>
+      <c r="G92">
+        <v>-0.02146641380920459</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06417124162842293</v>
+        <v>-0.0865437572292329</v>
       </c>
       <c r="C93">
-        <v>0.06826392978604021</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06731166033526761</v>
+      </c>
+      <c r="D93">
+        <v>0.2984052505828719</v>
+      </c>
+      <c r="E93">
+        <v>-0.04435451797920138</v>
+      </c>
+      <c r="F93">
+        <v>-0.037186470172752</v>
+      </c>
+      <c r="G93">
+        <v>-0.01343679109219601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1271663805387186</v>
+        <v>-0.1295538502491745</v>
       </c>
       <c r="C94">
-        <v>0.07859314829073734</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.0392976915987932</v>
+      </c>
+      <c r="D94">
+        <v>-0.05729036587184522</v>
+      </c>
+      <c r="E94">
+        <v>0.02707095620967844</v>
+      </c>
+      <c r="F94">
+        <v>-0.05355499929636198</v>
+      </c>
+      <c r="G94">
+        <v>0.04211788887164231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.114749463337107</v>
+        <v>-0.1197592492732874</v>
       </c>
       <c r="C95">
-        <v>0.05396241088280986</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02724445345066582</v>
+      </c>
+      <c r="D95">
+        <v>-0.05943771990158771</v>
+      </c>
+      <c r="E95">
+        <v>0.01637513391714039</v>
+      </c>
+      <c r="F95">
+        <v>-0.02725621171196778</v>
+      </c>
+      <c r="G95">
+        <v>-0.009524125836081473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1883065952760124</v>
+        <v>-0.2229601983144483</v>
       </c>
       <c r="C97">
-        <v>0.07272273261588784</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.04171305015138116</v>
+      </c>
+      <c r="D97">
+        <v>0.01319481686016136</v>
+      </c>
+      <c r="E97">
+        <v>0.2270086420672765</v>
+      </c>
+      <c r="F97">
+        <v>0.8597187483138494</v>
+      </c>
+      <c r="G97">
+        <v>-0.2425861749692967</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.236254464726675</v>
+        <v>-0.257889656083386</v>
       </c>
       <c r="C98">
-        <v>0.1170329343113662</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.06100089532873923</v>
+      </c>
+      <c r="D98">
+        <v>-0.03697539280003109</v>
+      </c>
+      <c r="E98">
+        <v>0.1450541079951247</v>
+      </c>
+      <c r="F98">
+        <v>0.003659722553942273</v>
+      </c>
+      <c r="G98">
+        <v>0.2419387320141495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.5557694123088356</v>
+        <v>-0.3698351459889143</v>
       </c>
       <c r="C99">
-        <v>-0.8214816670371985</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9184725837938132</v>
+      </c>
+      <c r="D99">
+        <v>0.07111591779242894</v>
+      </c>
+      <c r="E99">
+        <v>-0.04973353855926253</v>
+      </c>
+      <c r="F99">
+        <v>-0.03805304059436888</v>
+      </c>
+      <c r="G99">
+        <v>0.002235840528777225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.03703145738316798</v>
+        <v>-0.04239762237567176</v>
       </c>
       <c r="C101">
-        <v>0.03267557452951731</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.0255302140972387</v>
+      </c>
+      <c r="D101">
+        <v>-0.01035423597636637</v>
+      </c>
+      <c r="E101">
+        <v>-0.04298879821336765</v>
+      </c>
+      <c r="F101">
+        <v>-0.009213277291185925</v>
+      </c>
+      <c r="G101">
+        <v>0.006017021195108629</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
